--- a/VA_result_IAA.xlsx
+++ b/VA_result_IAA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -390,6 +390,54 @@
   </si>
   <si>
     <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">VA_CST</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -2433,6 +2481,182 @@
         <v>126.513396152838</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1226825.63072606</v>
+      </c>
+      <c r="C122" t="n">
+        <v>126.516923921072</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1226834.57520901</v>
+      </c>
+      <c r="C123" t="n">
+        <v>126.517846324745</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1226840.31333943</v>
+      </c>
+      <c r="C124" t="n">
+        <v>126.518438071928</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1226827.13257241</v>
+      </c>
+      <c r="C125" t="n">
+        <v>126.517078799627</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1226836.16754184</v>
+      </c>
+      <c r="C126" t="n">
+        <v>126.518010534758</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1226838.52990013</v>
+      </c>
+      <c r="C127" t="n">
+        <v>126.518254153978</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1226840.04541457</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126.518410442061</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1226836.56418101</v>
+      </c>
+      <c r="C129" t="n">
+        <v>126.518051438344</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1226838.95044317</v>
+      </c>
+      <c r="C130" t="n">
+        <v>126.518297522662</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1226839.57437477</v>
+      </c>
+      <c r="C131" t="n">
+        <v>126.518361865878</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1226839.97464344</v>
+      </c>
+      <c r="C132" t="n">
+        <v>126.518403143758</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1226839.05519983</v>
+      </c>
+      <c r="C133" t="n">
+        <v>126.518308325738</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1226839.68544574</v>
+      </c>
+      <c r="C134" t="n">
+        <v>126.51837332012</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1226839.850235</v>
+      </c>
+      <c r="C135" t="n">
+        <v>126.518390314083</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1226839.95595167</v>
+      </c>
+      <c r="C136" t="n">
+        <v>126.518401216161</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1226839.71311349</v>
+      </c>
+      <c r="C137" t="n">
+        <v>126.518376173368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>12.3001591883993</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2518,7 +2742,7 @@
         <v>12.0412820580172</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2538,7 +2762,7 @@
         <v>-1.11113801528692</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2558,7 +2782,7 @@
         <v>1.50904853275864</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2578,7 +2802,7 @@
         <v>1.09417565177337</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -2598,7 +2822,7 @@
         <v>-14.7136042662981</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2842,7 @@
         <v>-23.3123954048427</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2638,7 +2862,7 @@
         <v>2.45732709868076</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2658,7 +2882,7 @@
         <v>2.73331272201915</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2678,7 +2902,7 @@
         <v>-2.96158303449273</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2698,7 +2922,7 @@
         <v>10.0863021385178</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2942,7 @@
         <v>-5.61103445209472</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2738,7 +2962,7 @@
         <v>50.1187976192572</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2758,7 +2982,7 @@
         <v>8.16847725969636</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2778,7 +3002,7 @@
         <v>-25.9964549114521</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +3022,7 @@
         <v>25.1067131489459</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2818,7 +3042,7 @@
         <v>8.04139930060337</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2838,7 +3062,7 @@
         <v>4.33848841918258</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2858,7 +3082,7 @@
         <v>-1.27665665306242</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2878,7 +3102,7 @@
         <v>6.22189764240058</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -2898,7 +3122,7 @@
         <v>11.4680857582537</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2918,7 +3142,7 @@
         <v>4.54315036489101</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -2938,7 +3162,7 @@
         <v>7.64700428660687</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2958,7 +3182,7 @@
         <v>-1.65148380966725</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2978,7 +3202,7 @@
         <v>-3.83552305181807</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>1627142.42737179</v>
+        <v>1615570.97436581</v>
       </c>
       <c r="C28" t="n">
         <v>126.341534865146</v>
       </c>
       <c r="D28" t="n">
-        <v>0.134997499115808</v>
+        <v>-0.57711435927027</v>
       </c>
       <c r="E28" t="n">
         <v>0.253959159578243</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>1628045.31753388</v>
+        <v>1608635.08760629</v>
       </c>
       <c r="C29" t="n">
         <v>126.473262840614</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0554893134679491</v>
+        <v>-0.429314890498333</v>
       </c>
       <c r="E29" t="n">
         <v>0.104263396521587</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>1628273.31111577</v>
+        <v>1603552.90764341</v>
       </c>
       <c r="C30" t="n">
         <v>126.506526170113</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0140041299487859</v>
+        <v>-0.315931189244334</v>
       </c>
       <c r="E30" t="n">
         <v>0.0263006810696798</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>1628333.19429437</v>
+        <v>1600015.55322264</v>
       </c>
       <c r="C31" t="n">
         <v>126.515262880526</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00367771050415744</v>
+        <v>-0.220594805691521</v>
       </c>
       <c r="E31" t="n">
         <v>0.00690613415612606</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1597594.52474928</v>
+      </c>
+      <c r="C32" t="n">
+        <v>126.517571779343</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.151312808708659</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.00182499626084631</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1595947.92204364</v>
+      </c>
+      <c r="C33" t="n">
+        <v>126.518181642285</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.103067623238218</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.000482038134097529</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1594830.74659419</v>
+      </c>
+      <c r="C34" t="n">
+        <v>126.518342714509</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.0700007458898977</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.000127311522635232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1594073.48912501</v>
+      </c>
+      <c r="C35" t="n">
+        <v>126.518385255933</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.0474819958667383</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0000336247086840658</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3656,7 +3960,7 @@
         <v>1178149.26514696</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3691,7 +3995,7 @@
         <v>1178149.26514696</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3726,7 +4030,7 @@
         <v>1178149.26514696</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3761,7 +4065,7 @@
         <v>1178149.26514696</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3796,7 +4100,7 @@
         <v>1248205.50484621</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3831,7 +4135,7 @@
         <v>1248205.50484621</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3866,7 +4170,7 @@
         <v>1248205.50484621</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3901,7 +4205,7 @@
         <v>1248205.50484621</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3936,7 +4240,7 @@
         <v>1202291.28803561</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3971,7 +4275,7 @@
         <v>1202291.28803561</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -4006,7 +4310,7 @@
         <v>1202291.28803561</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4041,7 +4345,7 @@
         <v>1202291.28803561</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4076,7 +4380,7 @@
         <v>1267410.38618115</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4111,7 +4415,7 @@
         <v>1267410.38618115</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4146,7 +4450,7 @@
         <v>1267410.38618115</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4181,7 +4485,7 @@
         <v>1267410.38618115</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4216,7 +4520,7 @@
         <v>1266107.59309936</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4251,7 +4555,7 @@
         <v>1266107.59309936</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4286,7 +4590,7 @@
         <v>1266107.59309936</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4321,7 +4625,7 @@
         <v>1266107.59309936</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4356,7 +4660,7 @@
         <v>1112526.63201525</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4391,7 +4695,7 @@
         <v>1112526.63201525</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4426,7 +4730,7 @@
         <v>1112526.63201525</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4461,7 +4765,7 @@
         <v>1112526.63201525</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4496,7 +4800,7 @@
         <v>1026327.84442558</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4531,7 +4835,7 @@
         <v>1026327.84442558</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4566,7 +4870,7 @@
         <v>1026327.84442558</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4601,7 +4905,7 @@
         <v>1026327.84442558</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4636,7 +4940,7 @@
         <v>1138617.99282037</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4671,7 +4975,7 @@
         <v>1138617.99282037</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4706,7 +5010,7 @@
         <v>1138617.99282037</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4741,7 +5045,7 @@
         <v>1138617.99282037</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4776,7 +5080,7 @@
         <v>1161548.07964256</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4811,7 +5115,7 @@
         <v>1161548.07964256</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4846,7 +5150,7 @@
         <v>1161548.07964256</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4881,7 +5185,7 @@
         <v>1161548.07964256</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4916,7 +5220,7 @@
         <v>1150056.80425529</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4951,7 +5255,7 @@
         <v>1150056.80425529</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4986,7 +5290,7 @@
         <v>1150056.80425529</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -5021,7 +5325,7 @@
         <v>1150056.80425529</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5056,7 +5360,7 @@
         <v>1176529.51870387</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5091,7 +5395,7 @@
         <v>1176529.51870387</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5126,7 +5430,7 @@
         <v>1176529.51870387</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5161,7 +5465,7 @@
         <v>1176529.51870387</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5196,7 +5500,7 @@
         <v>1114505.27024495</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5231,7 +5535,7 @@
         <v>1114505.27024495</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5266,7 +5570,7 @@
         <v>1114505.27024495</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5301,7 +5605,7 @@
         <v>1114505.27024495</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5336,7 +5640,7 @@
         <v>1152723.40104048</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5371,7 +5675,7 @@
         <v>1152723.40104048</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5406,7 +5710,7 @@
         <v>1152723.40104048</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5441,7 +5745,7 @@
         <v>1152723.40104048</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5476,7 +5780,7 @@
         <v>1227752.22182458</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5511,7 +5815,7 @@
         <v>1227752.22182458</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5546,7 +5850,7 @@
         <v>1227752.22182458</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5581,7 +5885,7 @@
         <v>1227752.22182458</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5616,7 +5920,7 @@
         <v>1181816.82908106</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5651,7 +5955,7 @@
         <v>1181816.82908106</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5686,7 +5990,7 @@
         <v>1181816.82908106</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5721,7 +6025,7 @@
         <v>1181816.82908106</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5756,7 +6060,7 @@
         <v>1338419.88417197</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5791,7 +6095,7 @@
         <v>1338419.88417197</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5826,7 +6130,7 @@
         <v>1338419.88417197</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5861,7 +6165,7 @@
         <v>1338419.88417197</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5896,7 +6200,7 @@
         <v>1504365.1627918</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5931,7 +6235,7 @@
         <v>1504365.1627918</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5966,7 +6270,7 @@
         <v>1504365.1627918</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -6001,7 +6305,7 @@
         <v>1504365.1627918</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6036,7 +6340,7 @@
         <v>1578586.61518412</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6071,7 +6375,7 @@
         <v>1578586.61518412</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6106,7 +6410,7 @@
         <v>1578586.61518412</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6141,7 +6445,7 @@
         <v>1578586.61518412</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6176,7 +6480,7 @@
         <v>1558417.98631214</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6211,7 +6515,7 @@
         <v>1558417.98631214</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6246,7 +6550,7 @@
         <v>1558417.98631214</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6281,7 +6585,7 @@
         <v>1558417.98631214</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6316,7 +6620,7 @@
         <v>1459043.98815503</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6351,7 +6655,7 @@
         <v>1459043.98815503</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6386,7 +6690,7 @@
         <v>1459043.98815503</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6421,7 +6725,7 @@
         <v>1459043.98815503</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6456,7 +6760,7 @@
         <v>1681687.89425166</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6491,7 +6795,7 @@
         <v>1681687.89425166</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6526,7 +6830,7 @@
         <v>1681687.89425166</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6561,7 +6865,7 @@
         <v>1681687.89425166</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6596,7 +6900,7 @@
         <v>1676032.15525383</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6631,7 +6935,7 @@
         <v>1676032.15525383</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6666,7 +6970,7 @@
         <v>1676032.15525383</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6701,7 +7005,7 @@
         <v>1676032.15525383</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6736,7 +7040,7 @@
         <v>1769279.66498025</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6771,7 +7075,7 @@
         <v>1769279.66498025</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6806,7 +7110,7 @@
         <v>1769279.66498025</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6841,7 +7145,7 @@
         <v>1769279.66498025</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6876,7 +7180,7 @@
         <v>1676482.09873852</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6911,7 +7215,7 @@
         <v>1676482.09873852</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6946,7 +7250,7 @@
         <v>1676482.09873852</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6981,7 +7285,7 @@
         <v>1676482.09873852</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>405947.874031171</v>
+        <v>406545.941628443</v>
       </c>
       <c r="C98" t="n">
         <v>31.4631619312777</v>
       </c>
       <c r="D98" t="n">
-        <v>52953.5497324325</v>
+        <v>14121.2434150339</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>406551.816066986</v>
+        <v>406910.656625349</v>
       </c>
       <c r="C99" t="n">
         <v>31.5512745999253</v>
       </c>
       <c r="D99" t="n">
-        <v>52953.5497324325</v>
+        <v>13768.1010222636</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>407149.806753901</v>
+        <v>407030.193234447</v>
       </c>
       <c r="C100" t="n">
         <v>31.6385189911515</v>
       </c>
       <c r="D100" t="n">
-        <v>52953.5497324325</v>
+        <v>13061.816236723</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>405299.290295166</v>
+        <v>404461.995658985</v>
       </c>
       <c r="C101" t="n">
         <v>31.3685362214714</v>
       </c>
       <c r="D101" t="n">
-        <v>52953.5497324325</v>
+        <v>12002.389058412</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>406545.633035552</v>
+        <v>404751.430243736</v>
       </c>
       <c r="C102" t="n">
         <v>31.5503725209713</v>
       </c>
       <c r="D102" t="n">
-        <v>52953.5497324325</v>
+        <v>10589.8194873308</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>406880.342734414</v>
+        <v>404263.912496473</v>
       </c>
       <c r="C103" t="n">
         <v>31.5992052947146</v>
       </c>
       <c r="D103" t="n">
-        <v>52953.5497324325</v>
+        <v>9376.06301126318</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>407095.713221043</v>
+        <v>403791.736246487</v>
       </c>
       <c r="C104" t="n">
         <v>31.6306269663311</v>
       </c>
       <c r="D104" t="n">
-        <v>52953.5497324325</v>
+        <v>8361.11963020915</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>406620.738380776</v>
+        <v>402763.895379114</v>
       </c>
       <c r="C105" t="n">
         <v>31.5613300831294</v>
       </c>
       <c r="D105" t="n">
-        <v>52953.5497324325</v>
+        <v>7544.98934416873</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>406950.493481628</v>
+        <v>402675.465162372</v>
       </c>
       <c r="C106" t="n">
         <v>31.6094400013223</v>
       </c>
       <c r="D106" t="n">
-        <v>52953.5497324325</v>
+        <v>6927.67215314192</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>407036.91137795</v>
+        <v>402363.597266599</v>
       </c>
       <c r="C107" t="n">
         <v>31.6220480183376</v>
       </c>
       <c r="D107" t="n">
-        <v>52953.5497324325</v>
+        <v>6339.73026217404</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>407092.146449863</v>
+        <v>402040.446071918</v>
       </c>
       <c r="C108" t="n">
         <v>31.6301065890292</v>
       </c>
       <c r="D108" t="n">
-        <v>52953.5497324325</v>
+        <v>5781.16367126509</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>406965.766224439</v>
+        <v>401555.5791054</v>
       </c>
       <c r="C109" t="n">
         <v>31.6116682319253</v>
       </c>
       <c r="D109" t="n">
-        <v>52953.5497324325</v>
+        <v>5251.97238041508</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>407052.423974177</v>
+        <v>401303.649639544</v>
       </c>
       <c r="C110" t="n">
         <v>31.6243112425714</v>
       </c>
       <c r="D110" t="n">
-        <v>52953.5497324325</v>
+        <v>4752.15638962399</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>407075.073936163</v>
+        <v>401018.33410191</v>
       </c>
       <c r="C111" t="n">
         <v>31.6276157792272</v>
       </c>
       <c r="D111" t="n">
-        <v>52953.5497324325</v>
+        <v>4297.54359199594</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>407089.603515119</v>
+        <v>400755.519897219</v>
       </c>
       <c r="C112" t="n">
         <v>31.6297355852685</v>
       </c>
       <c r="D112" t="n">
-        <v>52953.5497324325</v>
+        <v>3888.13398753091</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>407056.209690313</v>
+        <v>400475.40400474</v>
       </c>
       <c r="C113" t="n">
         <v>31.6248635630454</v>
       </c>
       <c r="D113" t="n">
-        <v>52953.5497324325</v>
+        <v>3523.9275762289</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>407079.095944556</v>
+        <v>400282.189907283</v>
       </c>
       <c r="C114" t="n">
         <v>31.6282025737734</v>
       </c>
       <c r="D114" t="n">
-        <v>52953.5497324325</v>
+        <v>3204.92435808992</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>407085.079765435</v>
+        <v>400088.731895217</v>
       </c>
       <c r="C115" t="n">
         <v>31.6290755887236</v>
       </c>
       <c r="D115" t="n">
-        <v>52953.5497324325</v>
+        <v>2910.51212765947</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>407088.918742984</v>
+        <v>399909.787558577</v>
       </c>
       <c r="C116" t="n">
         <v>31.6296356798195</v>
       </c>
       <c r="D116" t="n">
-        <v>52953.5497324325</v>
+        <v>2640.69088493755</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>407080.099841398</v>
+        <v>399734.843861558</v>
       </c>
       <c r="C117" t="n">
         <v>31.6283490382096</v>
       </c>
       <c r="D117" t="n">
-        <v>52953.5497324325</v>
+        <v>2395.46062992416</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>399591.422593963</v>
+      </c>
+      <c r="C118" t="n">
+        <v>31.629230980268</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2174.82136261931</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>399455.656050777</v>
+      </c>
+      <c r="C119" t="n">
+        <v>31.6294615811864</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1972.07215077314</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>399331.442059187</v>
+      </c>
+      <c r="C120" t="n">
+        <v>31.6296095179819</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1787.21299438566</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>399216.004045352</v>
+      </c>
+      <c r="C121" t="n">
+        <v>31.6292696999068</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1620.24389345687</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>399116.610936687</v>
+      </c>
+      <c r="C122" t="n">
+        <v>31.6295026336896</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1471.16484798677</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>399024.663066106</v>
+      </c>
+      <c r="C123" t="n">
+        <v>31.6295635384945</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1334.81691748687</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>398941.189908673</v>
+      </c>
+      <c r="C124" t="n">
+        <v>31.6296026105153</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1211.20010195716</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>398865.45813217</v>
+      </c>
+      <c r="C125" t="n">
+        <v>31.6295128595859</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1100.31440139765</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>398799.387564044</v>
+      </c>
+      <c r="C126" t="n">
+        <v>31.6295743806655</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1002.15981580834</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>398736.189579377</v>
+      </c>
+      <c r="C127" t="n">
+        <v>31.6295904664695</v>
+      </c>
+      <c r="D127" t="n">
+        <v>908.705399183655</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>398676.136077109</v>
+      </c>
+      <c r="C128" t="n">
+        <v>31.6296007859394</v>
+      </c>
+      <c r="D128" t="n">
+        <v>819.951151523594</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>398619.03337366</v>
+      </c>
+      <c r="C129" t="n">
+        <v>31.6295770814345</v>
+      </c>
+      <c r="D129" t="n">
+        <v>735.897072828156</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>398565.388522853</v>
+      </c>
+      <c r="C130" t="n">
+        <v>31.6295933300299</v>
+      </c>
+      <c r="D130" t="n">
+        <v>656.543163097343</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>398525.100476394</v>
+      </c>
+      <c r="C131" t="n">
+        <v>31.6295975785207</v>
+      </c>
+      <c r="D131" t="n">
+        <v>597.027730799234</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>398498.241046674</v>
+      </c>
+      <c r="C132" t="n">
+        <v>31.6296003040403</v>
+      </c>
+      <c r="D132" t="n">
+        <v>557.350775933827</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>398484.759079092</v>
+      </c>
+      <c r="C133" t="n">
+        <v>31.6295940433421</v>
+      </c>
+      <c r="D133" t="n">
+        <v>537.512298501124</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>405947.874031171</v>
+        <v>406545.941628443</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>406551.816066986</v>
+        <v>406910.656625349</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>407149.806753901</v>
+        <v>407030.193234447</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>405299.290295166</v>
+        <v>404461.995658985</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>406545.633035552</v>
+        <v>404751.430243736</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>406880.342734414</v>
+        <v>404263.912496473</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>407095.713221043</v>
+        <v>403791.736246487</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>406620.738380776</v>
+        <v>402763.895379114</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>406950.493481628</v>
+        <v>402675.465162372</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>407036.91137795</v>
+        <v>402363.597266599</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>407092.146449863</v>
+        <v>402040.446071918</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>406965.766224439</v>
+        <v>401555.5791054</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>407052.423974177</v>
+        <v>401303.649639544</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>407075.073936163</v>
+        <v>401018.33410191</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>407089.603515119</v>
+        <v>400755.519897219</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>407056.209690313</v>
+        <v>400475.40400474</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>407079.095944556</v>
+        <v>400282.189907283</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>407085.079765435</v>
+        <v>400088.731895217</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>407088.918742984</v>
+        <v>399909.787558577</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>407080.099841398</v>
+        <v>399734.843861558</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>399591.422593963</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>399455.656050777</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>399331.442059187</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>399216.004045352</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>399116.610936687</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>399024.663066106</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>398941.189908673</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>398865.45813217</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>398799.387564044</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>398736.189579377</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>398676.136077109</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>398619.03337366</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>398565.388522853</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>398525.100476394</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>398498.241046674</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>398484.759079092</v>
       </c>
     </row>
   </sheetData>
